--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
     <sheet name="Caixinha" sheetId="4" r:id="rId2"/>
-    <sheet name="Contoller" sheetId="2" r:id="rId3"/>
+    <sheet name="Controller" sheetId="2" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -396,70 +396,8 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
-  <c:style val="7"/>
-  <c:chart>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Caixinha!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Total Reservado</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta de Reserva</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Caixinha!$E$1:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>"R$"\ #,##0.00;[Red]\-"R$"\ #,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
   <c:pivotSource>
-    <c:name>[Dashboard.xlsx]Contoller!Tabela dinâmica2</c:name>
+    <c:name>[Dashboard.xlsx]Controller!Tabela dinâmica2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -540,7 +478,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Contoller!$E$3</c:f>
+              <c:f>Controller!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -565,7 +503,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Contoller!$D$4:$D$8</c:f>
+              <c:f>Controller!$D$4:$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -585,7 +523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Contoller!$E$4:$E$8</c:f>
+              <c:f>Controller!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00;[Red]\-"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -605,24 +543,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120751616"/>
-        <c:axId val="120753152"/>
+        <c:axId val="124703488"/>
+        <c:axId val="124705024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120751616"/>
+        <c:axId val="124703488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120753152"/>
+        <c:crossAx val="124705024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120753152"/>
+        <c:axId val="124705024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +568,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120751616"/>
+        <c:crossAx val="124703488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -648,17 +586,17 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
   <c:pivotSource>
-    <c:name>[Dashboard.xlsx]Contoller!Tabela dinâmica1</c:name>
+    <c:name>[Dashboard.xlsx]Controller!Tabela dinâmica1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -739,7 +677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Contoller!$B$3</c:f>
+              <c:f>Controller!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -764,7 +702,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Contoller!$A$4:$A$19</c:f>
+              <c:f>Controller!$A$4:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -817,7 +755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Contoller!$B$4:$B$19</c:f>
+              <c:f>Controller!$B$4:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00;[Red]\-"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -870,24 +808,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120938880"/>
-        <c:axId val="120940416"/>
+        <c:axId val="124940672"/>
+        <c:axId val="124942208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120938880"/>
+        <c:axId val="124940672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120940416"/>
+        <c:crossAx val="124942208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120940416"/>
+        <c:axId val="124942208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +833,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120938880"/>
+        <c:crossAx val="124940672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,13 +854,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
   <c:style val="7"/>
@@ -976,9 +914,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64941604358857441"/>
-          <c:y val="0.37467102281763515"/>
-          <c:w val="0.29242670880350963"/>
+          <c:x val="0.64941604358857474"/>
+          <c:y val="0.37467102281763526"/>
+          <c:w val="0.29242670880350985"/>
           <c:h val="0.19636282485160755"/>
         </c:manualLayout>
       </c:layout>
@@ -993,7 +931,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1001,36 +939,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -3137,13 +3045,18 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="23.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -4370,7 +4283,7 @@
   <dimension ref="D1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4472,8 +4385,8 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4689,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
